--- a/模板/开发辅助模板.xlsx
+++ b/模板/开发辅助模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xw/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\ltt\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A63DFB-099F-7C4D-A6FD-5D30E157AFB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FBCDA0-B5DF-46DE-89C9-53CC0BC61ADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总-自动取数" sheetId="2" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">汇总表2!$A$4:$V$65</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">卡片数据!$A$4:$X$8</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" fullPrecision="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029" calcMode="manual" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="167">
   <si>
     <t>固定资产及折旧情况表（卡片数据）</t>
   </si>
@@ -235,15 +227,6 @@
   <si>
     <t>增量资产净值
 （2014年12月31日以后）</t>
-  </si>
-  <si>
-    <t>三、配电线路及设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   1.配电线路</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2.配电设备</t>
   </si>
   <si>
     <t>五、通信线路及设备</t>
@@ -533,19 +516,107 @@
     <t>23</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、变电设备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、配电线路及设备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   1.配电线路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.配电设备</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、输电线路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -816,7 +887,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -835,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -869,7 +940,7 @@
     <xf numFmtId="176" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -887,10 +958,10 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -905,7 +976,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -913,15 +984,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -930,30 +1001,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1000,7 +1071,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="7" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1049,11 +1120,11 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1062,11 +1133,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1088,7 +1159,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1165,7 +1236,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="9" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1178,26 +1249,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,6 +1256,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1220,6 +1275,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,6 +1299,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1579,44 +1669,44 @@
       <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="3" width="15.1640625" customWidth="1"/>
+    <col min="2" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+    <col min="11" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="17" width="15.1640625" customWidth="1"/>
-    <col min="18" max="19" width="17.1640625" customWidth="1"/>
-    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="16" max="17" width="15.125" customWidth="1"/>
+    <col min="18" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
     <col min="21" max="21" width="17.5" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="15.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="23" max="23" width="15.375" customWidth="1"/>
+    <col min="24" max="24" width="12.875" customWidth="1"/>
     <col min="25" max="25" width="19.5" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" customWidth="1"/>
+    <col min="26" max="26" width="12.875" customWidth="1"/>
     <col min="27" max="27" width="9" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="12.1640625" customWidth="1"/>
+    <col min="28" max="28" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="13.625" customWidth="1"/>
+    <col min="30" max="30" width="12.125" customWidth="1"/>
     <col min="31" max="33" width="13" customWidth="1"/>
-    <col min="34" max="34" width="10.6640625" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" customWidth="1"/>
-    <col min="36" max="36" width="12.1640625" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" customWidth="1"/>
-    <col min="38" max="38" width="20.33203125" customWidth="1"/>
-    <col min="39" max="39" width="14.1640625" customWidth="1"/>
-    <col min="40" max="40" width="13.83203125" customWidth="1"/>
-    <col min="41" max="42" width="14.83203125" customWidth="1"/>
+    <col min="34" max="34" width="10.625" customWidth="1"/>
+    <col min="35" max="35" width="11.625" customWidth="1"/>
+    <col min="36" max="36" width="12.125" customWidth="1"/>
+    <col min="37" max="37" width="10.875" customWidth="1"/>
+    <col min="38" max="38" width="20.375" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
+    <col min="40" max="40" width="13.875" customWidth="1"/>
+    <col min="41" max="42" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="17">
+    <row r="1" spans="1:42" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1752,7 @@
       <c r="AO1" s="92"/>
       <c r="AP1" s="92"/>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2" s="45" t="str">
         <f>卡片数据!A2</f>
         <v>编制单位：国网四川省电力公司XXXX</v>
@@ -1709,7 +1799,7 @@
         <v>单位：元</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="42" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:42" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="97" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1871,7 @@
       </c>
       <c r="AP3" s="95"/>
     </row>
-    <row r="4" spans="1:42" s="43" customFormat="1" ht="33.75" customHeight="1">
+    <row r="4" spans="1:42" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="68" t="s">
         <v>9</v>
@@ -1899,7 +1989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="5" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="72" t="s">
         <v>24</v>
       </c>
@@ -2068,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="6" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="53" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="7" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A7" s="53" t="s">
         <v>26</v>
       </c>
@@ -2406,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="8" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A8" s="53" t="s">
         <v>27</v>
       </c>
@@ -2575,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="9" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A9" s="53" t="s">
         <v>28</v>
       </c>
@@ -2744,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="10" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A10" s="72" t="s">
         <v>29</v>
       </c>
@@ -2913,7 +3003,7 @@
         <v>9940.2999999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="11" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
         <v>25</v>
       </c>
@@ -3082,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="12" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A12" s="55" t="s">
         <v>26</v>
       </c>
@@ -3251,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="13" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A13" s="55" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +3510,7 @@
         <v>4033.54</v>
       </c>
     </row>
-    <row r="14" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="14" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A14" s="55" t="s">
         <v>28</v>
       </c>
@@ -3589,7 +3679,7 @@
         <v>5906.76</v>
       </c>
     </row>
-    <row r="15" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="15" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A15" s="55" t="s">
         <v>30</v>
       </c>
@@ -3758,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="16" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A16" s="60" t="s">
         <v>31</v>
       </c>
@@ -3927,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="17" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A17" s="55" t="s">
         <v>28</v>
       </c>
@@ -4096,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="67" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:42" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="55" t="s">
         <v>30</v>
       </c>
@@ -4265,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="19" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A19" s="55" t="s">
         <v>32</v>
       </c>
@@ -4434,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="20" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A20" s="60" t="s">
         <v>33</v>
       </c>
@@ -4603,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="21" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A21" s="55" t="s">
         <v>28</v>
       </c>
@@ -4772,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="22" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A22" s="55" t="s">
         <v>30</v>
       </c>
@@ -4941,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="23" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A23" s="55" t="s">
         <v>32</v>
       </c>
@@ -5110,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="24" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A24" s="59" t="s">
         <v>34</v>
       </c>
@@ -5279,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="25" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A25" s="60" t="s">
         <v>35</v>
       </c>
@@ -5448,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="26" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A26" s="60" t="s">
         <v>36</v>
       </c>
@@ -5617,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="27" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A27" s="60" t="s">
         <v>37</v>
       </c>
@@ -5786,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="28" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A28" s="60" t="s">
         <v>38</v>
       </c>
@@ -5955,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="29" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A29" s="60" t="s">
         <v>39</v>
       </c>
@@ -6124,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="30" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A30" s="60" t="s">
         <v>40</v>
       </c>
@@ -6293,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="31" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="60" t="s">
         <v>41</v>
       </c>
@@ -6462,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="32" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="60" t="s">
         <v>42</v>
       </c>
@@ -6631,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="33" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A33" s="60" t="s">
         <v>43</v>
       </c>
@@ -6800,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="34" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A34" s="60" t="s">
         <v>44</v>
       </c>
@@ -6969,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="35" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A35" s="60" t="s">
         <v>45</v>
       </c>
@@ -7138,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="36" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A36" s="60" t="s">
         <v>46</v>
       </c>
@@ -7307,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" s="67" customFormat="1" ht="13">
+    <row r="37" spans="1:42" s="67" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A37" s="62" t="s">
         <v>11</v>
       </c>
@@ -7505,35 +7595,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="15.125" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="14" width="16.1640625" customWidth="1"/>
+    <col min="13" max="14" width="16.125" customWidth="1"/>
     <col min="15" max="16" width="23.5" customWidth="1"/>
     <col min="17" max="17" width="16.5" customWidth="1"/>
-    <col min="18" max="19" width="21.83203125" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" customWidth="1"/>
-    <col min="21" max="22" width="21.83203125" customWidth="1"/>
+    <col min="18" max="19" width="21.875" customWidth="1"/>
+    <col min="20" max="20" width="16.125" customWidth="1"/>
+    <col min="21" max="22" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="92" t="s">
         <v>47</v>
       </c>
@@ -7559,37 +7649,75 @@
       <c r="U1" s="92"/>
       <c r="V1" s="92"/>
     </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="45" t="str">
-        <f>卡片数据!A2</f>
-        <v>编制单位：国网四川省电力公司XXXX</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="93" t="str">
-        <f>卡片数据!I2</f>
-        <v>编制日期：2019-12-31</v>
-      </c>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-    </row>
-    <row r="3" spans="1:22" s="42" customFormat="1" ht="14.25" customHeight="1">
+    <row r="2" spans="1:22" s="119" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="116" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="116">
+        <v>1</v>
+      </c>
+      <c r="C2" s="116">
+        <v>2</v>
+      </c>
+      <c r="D2" s="116">
+        <v>3</v>
+      </c>
+      <c r="E2" s="116">
+        <v>4</v>
+      </c>
+      <c r="F2" s="117">
+        <v>5</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="118" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="M2" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="N2" s="118" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="P2" s="118" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q2" s="118" t="s">
+        <v>155</v>
+      </c>
+      <c r="R2" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="U2" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" s="120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="42" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="97" t="s">
         <v>1</v>
       </c>
@@ -7629,7 +7757,7 @@
       <c r="U3" s="100"/>
       <c r="V3" s="101"/>
     </row>
-    <row r="4" spans="1:22" s="43" customFormat="1" ht="33.75" customHeight="1">
+    <row r="4" spans="1:22" s="43" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="48" t="s">
         <v>11</v>
@@ -7695,9 +7823,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="B5" s="50">
         <f t="shared" ref="B5:B65" si="0">C5+D5</f>
@@ -7784,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="53" t="s">
         <v>25</v>
       </c>
@@ -7873,7 +8001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="53" t="s">
         <v>26</v>
       </c>
@@ -7962,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="53" t="s">
         <v>27</v>
       </c>
@@ -8051,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="53" t="s">
         <v>28</v>
       </c>
@@ -8140,9 +8268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B10" s="50">
         <f t="shared" si="0"/>
@@ -8229,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="53" t="s">
         <v>25</v>
       </c>
@@ -8318,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="55" t="s">
         <v>26</v>
       </c>
@@ -8407,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="55" t="s">
         <v>27</v>
       </c>
@@ -8496,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="55" t="s">
         <v>28</v>
       </c>
@@ -8585,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="55" t="s">
         <v>30</v>
       </c>
@@ -8674,9 +8802,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="56" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="B16" s="50">
         <f t="shared" si="0"/>
@@ -8763,9 +8891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B17" s="50">
         <f t="shared" si="0"/>
@@ -8852,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" s="55" t="s">
         <v>28</v>
       </c>
@@ -8941,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" s="55" t="s">
         <v>30</v>
       </c>
@@ -9030,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" s="55" t="s">
         <v>32</v>
       </c>
@@ -9119,9 +9247,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" s="57" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B21" s="50">
         <f t="shared" si="0"/>
@@ -9208,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" s="55" t="s">
         <v>28</v>
       </c>
@@ -9297,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" s="55" t="s">
         <v>30</v>
       </c>
@@ -9386,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" s="55" t="s">
         <v>32</v>
       </c>
@@ -9475,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25" s="59" t="s">
         <v>34</v>
       </c>
@@ -9564,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" s="60" t="s">
         <v>35</v>
       </c>
@@ -9653,9 +9781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" s="60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" s="50">
         <f t="shared" si="0"/>
@@ -9742,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" s="56" t="s">
         <v>37</v>
       </c>
@@ -9831,9 +9959,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" s="61" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="50">
         <f t="shared" si="0"/>
@@ -9920,9 +10048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30" s="61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B30" s="50">
         <f t="shared" si="0"/>
@@ -10009,9 +10137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B31" s="50">
         <f t="shared" si="0"/>
@@ -10098,9 +10226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" s="61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="50">
         <f t="shared" si="0"/>
@@ -10187,9 +10315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33" s="61" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B33" s="50">
         <f t="shared" si="0"/>
@@ -10276,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34" s="56" t="s">
         <v>38</v>
       </c>
@@ -10365,9 +10493,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A35" s="60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B35" s="50">
         <f t="shared" si="0"/>
@@ -10454,9 +10582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A36" s="60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B36" s="50">
         <f t="shared" si="0"/>
@@ -10543,9 +10671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A37" s="60" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B37" s="50">
         <f t="shared" si="0"/>
@@ -10632,9 +10760,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A38" s="60" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B38" s="50">
         <f t="shared" si="0"/>
@@ -10721,9 +10849,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A39" s="60" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" s="50">
         <f t="shared" si="0"/>
@@ -10810,9 +10938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A40" s="60" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="50">
         <f t="shared" si="0"/>
@@ -10899,9 +11027,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A41" s="60" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B41" s="50">
         <f t="shared" si="0"/>
@@ -10988,9 +11116,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A42" s="60" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="50">
         <f t="shared" si="0"/>
@@ -11077,9 +11205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A43" s="60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B43" s="50">
         <f t="shared" si="0"/>
@@ -11166,9 +11294,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A44" s="60" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B44" s="50">
         <f t="shared" si="0"/>
@@ -11255,9 +11383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A45" s="60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="50">
         <f t="shared" si="0"/>
@@ -11344,9 +11472,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A46" s="60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" s="50">
         <f t="shared" si="0"/>
@@ -11433,9 +11561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A47" s="60" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B47" s="50">
         <f t="shared" si="0"/>
@@ -11522,9 +11650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A48" s="60" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B48" s="50">
         <f t="shared" si="0"/>
@@ -11611,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A49" s="60" t="s">
         <v>39</v>
       </c>
@@ -11700,7 +11828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A50" s="60" t="s">
         <v>40</v>
       </c>
@@ -11789,7 +11917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A51" s="60" t="s">
         <v>41</v>
       </c>
@@ -11878,7 +12006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A52" s="56" t="s">
         <v>42</v>
       </c>
@@ -11967,9 +12095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A53" s="60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B53" s="50">
         <f t="shared" si="0"/>
@@ -12056,9 +12184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A54" s="60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B54" s="50">
         <f t="shared" si="0"/>
@@ -12145,9 +12273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A55" s="60" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B55" s="50">
         <f t="shared" si="0"/>
@@ -12234,9 +12362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A56" s="60" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B56" s="50">
         <f t="shared" si="0"/>
@@ -12323,9 +12451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A57" s="60" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B57" s="50">
         <f t="shared" si="0"/>
@@ -12412,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" s="44" customFormat="1">
+    <row r="58" spans="1:22" s="44" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="62" t="s">
         <v>43</v>
       </c>
@@ -12501,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="60" t="s">
         <v>44</v>
       </c>
@@ -12590,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A60" s="60" t="s">
         <v>45</v>
       </c>
@@ -12679,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="60" t="s">
         <v>46</v>
       </c>
@@ -12768,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="62" t="s">
         <v>11</v>
       </c>
@@ -12857,9 +12985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B63" s="50">
         <f t="shared" si="0"/>
@@ -12946,9 +13074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A64" s="60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B64" s="50">
         <f t="shared" si="0"/>
@@ -13035,9 +13163,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65" s="60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B65" s="50">
         <f t="shared" si="0"/>
@@ -13124,16 +13252,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B66" s="65"/>
       <c r="E66" s="65"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B67" s="66"/>
       <c r="C67" s="66"/>
       <c r="E67" s="66"/>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="R68" s="66">
         <f>R62+S62-(C62+D62-I62-J62)</f>
         <v>0</v>
@@ -13146,9 +13274,8 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A4:V65" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A1:V1"/>
-    <mergeCell ref="R2:V2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -13160,7 +13287,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.16875000000000001" right="0.16875000000000001" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13171,58 +13298,58 @@
   </sheetPr>
   <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="R1" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="15" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="16" customWidth="1"/>
     <col min="7" max="8" width="13.5" style="17" customWidth="1"/>
     <col min="9" max="10" width="12.5" style="17" customWidth="1"/>
-    <col min="11" max="11" width="16.1640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="17" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="17" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="18" customWidth="1"/>
-    <col min="16" max="18" width="14.1640625" style="15" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" style="15" customWidth="1"/>
-    <col min="20" max="21" width="12.83203125" style="5" customWidth="1"/>
-    <col min="22" max="24" width="24.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="17" customWidth="1"/>
+    <col min="14" max="14" width="14.375" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="18" customWidth="1"/>
+    <col min="16" max="18" width="14.125" style="15" customWidth="1"/>
+    <col min="19" max="19" width="12.125" style="15" customWidth="1"/>
+    <col min="20" max="21" width="12.875" style="5" customWidth="1"/>
+    <col min="22" max="24" width="24.375" style="5" customWidth="1"/>
     <col min="25" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="13" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
+    <row r="1" spans="1:24" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="36"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -13230,67 +13357,67 @@
       <c r="F2" s="21"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
-      <c r="I2" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
+      <c r="I2" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="22"/>
       <c r="N2" s="30"/>
       <c r="O2" s="30"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
       <c r="R2" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S2" s="20"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+    <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="106" t="s">
+      <c r="F3" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="G3" s="111" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="110" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>102</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="U3" s="108"/>
+      <c r="U3" s="103"/>
       <c r="V3" s="38">
         <v>43830</v>
       </c>
@@ -13301,13 +13428,13 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30.75" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="112"/>
+    <row r="4" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="108"/>
       <c r="G4" s="24" t="s">
         <v>9</v>
       </c>
@@ -13327,10 +13454,10 @@
         <v>20</v>
       </c>
       <c r="M4" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O4" s="34" t="s">
         <v>9</v>
@@ -13339,7 +13466,7 @@
         <v>20</v>
       </c>
       <c r="Q4" s="23" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R4" s="35" t="s">
         <v>9</v>
@@ -13354,18 +13481,18 @@
         <v>20</v>
       </c>
       <c r="V4" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W4" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="91" customFormat="1" ht="30.75" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="91" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="82">
         <v>1</v>
@@ -13380,81 +13507,81 @@
         <v>4</v>
       </c>
       <c r="F5" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="J5" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="K5" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="84" t="s">
+      <c r="L5" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="M5" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="K5" s="87" t="s">
+      <c r="N5" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="O5" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="P5" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="82" t="s">
+      <c r="Q5" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="88" t="s">
+      <c r="R5" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="88" t="s">
+      <c r="S5" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="82" t="s">
+      <c r="T5" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="U5" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="S5" s="88" t="s">
+      <c r="V5" s="90" t="s">
         <v>141</v>
       </c>
-      <c r="T5" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="U5" s="89" t="s">
+      <c r="W5" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="V5" s="90" t="s">
+      <c r="X5" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="W5" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="12" customHeight="1">
+    </row>
+    <row r="6" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="E6" s="16">
         <v>36525</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" s="29">
         <v>4608.45</v>
@@ -13508,24 +13635,24 @@
         <v>4608.45</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" s="16">
         <v>38717</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" s="29">
         <v>4033.54</v>
@@ -13579,24 +13706,24 @@
         <v>4033.54</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E8" s="16">
         <v>38717</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" s="29">
         <v>1298.31</v>
@@ -13653,6 +13780,12 @@
   </sheetData>
   <autoFilter ref="A4:X8" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -13660,12 +13793,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="V1:V1048576">
@@ -13715,15 +13842,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -13732,26 +13859,26 @@
       <c r="F1" s="113"/>
       <c r="G1" s="113"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="108"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="115"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -13768,7 +13895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -13777,7 +13904,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -13786,7 +13913,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -13795,7 +13922,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -13804,7 +13931,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -13813,7 +13940,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -13822,7 +13949,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -13831,7 +13958,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -13840,7 +13967,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -13849,7 +13976,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -13858,7 +13985,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -13867,7 +13994,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -13876,7 +14003,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -13885,7 +14012,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -13894,7 +14021,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -13903,7 +14030,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -13912,7 +14039,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -13921,7 +14048,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -13944,9 +14071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -13991,17 +14118,17 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -14010,26 +14137,26 @@
       <c r="F1" s="113"/>
       <c r="G1" s="113"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="108"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="115"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -14046,7 +14173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -14055,7 +14182,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -14064,7 +14191,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -14073,7 +14200,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -14082,7 +14209,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -14091,7 +14218,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14100,7 +14227,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -14109,7 +14236,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -14118,7 +14245,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -14127,7 +14254,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -14136,7 +14263,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -14145,7 +14272,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -14154,7 +14281,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -14163,7 +14290,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -14172,7 +14299,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -14181,7 +14308,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -14190,7 +14317,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -14199,7 +14326,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -14222,9 +14349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -14267,14 +14394,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="7" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" customHeight="1">
+    <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="113" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -14283,26 +14410,26 @@
       <c r="F1" s="113"/>
       <c r="G1" s="113"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="E2" s="103"/>
+      <c r="F2" s="102" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="108"/>
-      <c r="F2" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="108"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="115"/>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -14319,7 +14446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" customHeight="1">
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14328,7 +14455,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -14337,7 +14464,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -14346,7 +14473,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -14355,7 +14482,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -14364,7 +14491,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -14373,7 +14500,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -14382,7 +14509,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -14391,7 +14518,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -14400,7 +14527,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -14409,7 +14536,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -14418,7 +14545,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -14427,7 +14554,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -14436,7 +14563,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -14445,7 +14572,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -14454,7 +14581,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -14463,7 +14590,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -14472,7 +14599,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -14489,9 +14616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -14535,7 +14662,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
